--- a/biology/Neurosciences/Paavo_Pylkkänen/Paavo_Pylkkänen.xlsx
+++ b/biology/Neurosciences/Paavo_Pylkkänen/Paavo_Pylkkänen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paavo_Pylkk%C3%A4nen</t>
+          <t>Paavo_Pylkkänen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paavo Pylkkänen (né en 1959) est un philosophe de l'esprit finlandais. Il est professeur agrégé de philosophie à l'Université de Skövde, en Suède, et professeur associé de philosophie à l'Université de Helsinki, en Finlande. Il est particulièrement réputé pour son travail sur le problème corps-esprit, qui s'appuie sur l'interprétation de David Bohm de la physique quantique, en particulier la vision du cosmos de Bohm comme une totalité s'impliant et se dépliant (enfolding and unfolding whole; voir théorie de l'ordre implicite), une totalité qui englobe esprit et matière.
 Les domaines de spécialisation de Pylkkänen sont le problème corps-esprit, les sciences cognitives fondamentales, la philosophie de la physique, la philosophie de David Bohm et les fondements de la théorie quantique.
 À l'université de Skövde depuis 1996, il a lancé un programme d'études sur la conscience combinant la philosophie et les neurosciences cognitives. Entre 2008 et 2010, il a été professeur de philosophie théorique au département de philosophie de l'Université d'Helsinki. Il est actuellement professeur agrégé de philosophie au département récemment créé de neurosciences cognitives et de philosophie à l'université de Skövde, tout en travaillant comme professeur adjoint (docent) au Department of Philosophy, History, Culture and Art Studies de l'Université d'Helsinki.
-Pylkkänen a travaillé et publié avec le théoricien de la physique Basil Hiley, proche collaborateur de David Bohm durant plus de trois décennies. Hiley et Pylkkänen ont abordé la question de la relation entre l'esprit et la matière en se fondant sur l'hypothèse d'une information active, telle que définie dans le cadre conceptuel de la théorie de De Broglie-Bohm. Son œuvre Mind, Matter and the Implicate Order (2007) se fonde sur la notion d'holomovement développée par David Bohm[1],[2],[3].
+Pylkkänen a travaillé et publié avec le théoricien de la physique Basil Hiley, proche collaborateur de David Bohm durant plus de trois décennies. Hiley et Pylkkänen ont abordé la question de la relation entre l'esprit et la matière en se fondant sur l'hypothèse d'une information active, telle que définie dans le cadre conceptuel de la théorie de De Broglie-Bohm. Son œuvre Mind, Matter and the Implicate Order (2007) se fonde sur la notion d'holomovement développée par David Bohm.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paavo_Pylkk%C3%A4nen</t>
+          <t>Paavo_Pylkkänen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Articles et chapitres de monographies
 Pylkkänen, P.: David Bohm och den vetenskapliga andan, 2010, Beyond belief and knowledge: Thoughts from a dialogue. Liljenström, H. &amp; Linderman, A. (eds.). Stockholm : Carlsson p. 127–142. (en suédois)
